--- a/biology/Origine et évolution du vivant/James_Hutton/James_Hutton.xlsx
+++ b/biology/Origine et évolution du vivant/James_Hutton/James_Hutton.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">James Hutton (3 juin 1726 à Édimbourg en Écosse - 26 mars 1797 dans la même ville) est un géologue écossais connu pour sa formulation de l'uniformitarisme (aussi nommé actualisme) et l'école du plutonisme. C'est l'un des pères de la géologie moderne[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">James Hutton (3 juin 1726 à Édimbourg en Écosse - 26 mars 1797 dans la même ville) est un géologue écossais connu pour sa formulation de l'uniformitarisme (aussi nommé actualisme) et l'école du plutonisme. C'est l'un des pères de la géologie moderne.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Ses études</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il étudie la médecine et le droit puis se sent attiré par la science naissante de la géologie. Tandis qu'il travaille dans le Berwickshire durant les années 1750-1760, il découvre toute une variété d'idées pour expliquer les formations rocheuses qu'il voit autour de lui. Il s'installe à Édimbourg où il rencontre des esprits brillants tels que John Playfair et Joseph Black.
 </t>
@@ -542,7 +556,9 @@
           <t>Ses théories</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses nouvelles théories le mettent en opposition avec le neptunisme de Abraham Gottlob Werner, alors très populaire, selon lequel les roches se sont formées à partir de la cristallisation de minéraux dans les océans du passé de la Terre. Werner note par exemple que de nombreuses couches de roches sédimentaires rencontrent d'autres couches avec des angles inhabituels, ce qui suggère que la première couche s'est déposée puis déformée et qu'une autre couche s'est déposée par-dessus. Il propose aussi que l'intérieur de la terre est chaud et que cette chaleur est le moteur de la création de nouvelles roches : l'érosion par le vent et l'eau produit des sédiments qui se déposent en couches dans la mer puis la chaleur consolide ces sédiments. Cette théorie est appelée le neptunisme. 
 Hutton, avec l'école plutoniste, établit l'origine intrusive du granite.
